--- a/xlsx/卡內基美隆大學_intext.xlsx
+++ b/xlsx/卡內基美隆大學_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>卡內基美隆大學</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>能力成熟度模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E5%8A%9B%E6%88%90%E7%86%9F%E5%BA%A6%E6%A8%A1%E5%9E%8B%E9%9B%86%E6%88%90</t>
+  </si>
+  <si>
+    <t>能力成熟度模型集成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%86%85%E5%9F%BA%E6%A2%85%E9%9A%86%E5%A4%A7%E5%AD%A6%E4%BA%BA%E6%9C%BA%E4%BA%A4%E4%BA%92%E5%AD%A6%E9%99%A2</t>
@@ -1683,7 +1689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5942,7 +5948,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5971,7 +5977,7 @@
         <v>284</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6203,7 +6209,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6232,7 +6238,7 @@
         <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6261,7 +6267,7 @@
         <v>304</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6435,7 +6441,7 @@
         <v>316</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6522,7 +6528,7 @@
         <v>322</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6841,7 +6847,7 @@
         <v>344</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -6870,7 +6876,7 @@
         <v>346</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -6986,7 +6992,7 @@
         <v>354</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7015,7 +7021,7 @@
         <v>356</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7189,7 +7195,7 @@
         <v>368</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7218,7 +7224,7 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7247,7 +7253,7 @@
         <v>372</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7334,7 +7340,7 @@
         <v>378</v>
       </c>
       <c r="G195" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7363,7 +7369,7 @@
         <v>380</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7392,7 +7398,7 @@
         <v>382</v>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7421,7 +7427,7 @@
         <v>384</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7450,7 +7456,7 @@
         <v>386</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7508,7 +7514,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7653,7 +7659,7 @@
         <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7682,7 +7688,7 @@
         <v>402</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8111,13 +8117,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8140,13 +8146,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F223" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8169,10 +8175,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F224" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8198,10 +8204,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>124</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8291,7 +8297,7 @@
         <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8314,18 +8320,47 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
+        <v>440</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="s">
+        <v>4</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>229</v>
+      </c>
+      <c r="E230" t="s">
         <v>439</v>
       </c>
-      <c r="G229" t="n">
-        <v>1</v>
-      </c>
-      <c r="H229" t="s">
-        <v>4</v>
-      </c>
-      <c r="I229" t="n">
+      <c r="F230" t="s">
+        <v>441</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>4</v>
+      </c>
+      <c r="I230" t="n">
         <v>3</v>
       </c>
     </row>
